--- a/DEVELOPMENT/energiebilanzen - Kopie/index/row_indices_eb.xlsx
+++ b/DEVELOPMENT/energiebilanzen - Kopie/index/row_indices_eb.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enerbal\src\files\energiebilanzen\index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_WORK\AEA\Projekte\bilanzen_monitor\enerbal\DEVELOPMENT\energiebilanzen - Kopie\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F43400-9A3A-4D51-B9A2-B6DDE52953DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A899E1D-1763-47C7-B7B6-FEA6596381B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="24636" yWindow="3108" windowWidth="17280" windowHeight="8964" tabRatio="926" firstSheet="3" activeTab="5" xr2:uid="{8F28FC77-E766-4AAD-93DD-BCA9FC6C3B00}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="9" xr2:uid="{F0CFE407-3D09-48F0-BB5D-BF37F2E549D4}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="926" firstSheet="3" activeTab="5" xr2:uid="{8F28FC77-E766-4AAD-93DD-BCA9FC6C3B00}"/>
   </bookViews>
   <sheets>
     <sheet name="IDX_RENEWABLES_NUMERIC" sheetId="13" r:id="rId1"/>
@@ -29,12 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1283,7 +1276,6 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1835,11 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D31F63C-3CA1-4F02-9663-3CB2EE8E3CEB}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B66" sqref="B66:E67"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="1">
-      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,7 +2989,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3068,7 +3056,6 @@
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3279,7 +3266,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5394,11 +5380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30433C89-8C6D-4DE5-A469-CF25DA4DB4A4}">
   <dimension ref="A1:A383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-    <sheetView topLeftCell="A129" workbookViewId="1">
-      <selection activeCell="A8" activeCellId="3" sqref="A11 A10 A9 A8"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6944,11 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E8AFBA-07A9-4455-A81D-B6FA37A642DE}">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-    <sheetView topLeftCell="A179" workbookViewId="1">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8436,7 +8416,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -10199,11 +10179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58836D7E-1A4A-4B45-A6CC-42ABDF35DAA2}">
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10354,10 +10331,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10474,7 +10448,6 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
